--- a/data/trans_dic/P3A$yo-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A$yo-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.5755177985330653</v>
+        <v>0.5755177985330654</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.9176146879990174</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5199694650975404</v>
+        <v>0.5179202959835687</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8733418569814949</v>
+        <v>0.8791106635133746</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7102604407814433</v>
+        <v>0.7109730879386256</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6321370615130738</v>
+        <v>0.6288679747789737</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.943773224104818</v>
+        <v>0.9432707585439346</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7789762126552142</v>
+        <v>0.7767770914876991</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.7329000512545049</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9111591558526252</v>
+        <v>0.9111591558526254</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.8233409136451111</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6782793345447072</v>
+        <v>0.6778260153270393</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8763309713709028</v>
+        <v>0.877673465016759</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7932877103198009</v>
+        <v>0.7874429627589599</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7795873008041136</v>
+        <v>0.7780534445702535</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9324991513622021</v>
+        <v>0.9348666480897958</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8513808764689862</v>
+        <v>0.8502517659262904</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7618963746698683</v>
+        <v>0.7618963746698684</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8975008873509172</v>
+        <v>0.8975008873509169</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.8337183661690515</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7107323057127815</v>
+        <v>0.7108845897746744</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8654163180449588</v>
+        <v>0.8651662562409138</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8084103143405222</v>
+        <v>0.8068692567012298</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.807564939633046</v>
+        <v>0.8038529152432555</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9213362382851468</v>
+        <v>0.9221177940191043</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8578022316976319</v>
+        <v>0.8588103402625977</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.6456226986209831</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8835012857312454</v>
+        <v>0.8835012857312455</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.771864361268323</v>
+        <v>0.7718643612683229</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.570309303354078</v>
+        <v>0.5783770073834402</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8350203465921516</v>
+        <v>0.839307164978207</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7316811293766999</v>
+        <v>0.7274413922893154</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7092817867575404</v>
+        <v>0.7128450709115219</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9164519205578386</v>
+        <v>0.9129361787421971</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8110809081503016</v>
+        <v>0.8075276568793497</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8816341517838678</v>
+        <v>0.8816341517838676</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.9447478433731094</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8345111403851122</v>
+        <v>0.8355519235204042</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9012518390064269</v>
+        <v>0.9034340813436296</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8875487836025084</v>
+        <v>0.8896950817793597</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9177247985165091</v>
+        <v>0.9171333490505483</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9650709451066533</v>
+        <v>0.9654564790412484</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9345194656226152</v>
+        <v>0.937894879532321</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.773539082609746</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9179616592626982</v>
+        <v>0.9179616592626979</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.8448104429315247</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7275099019496404</v>
+        <v>0.7288243508087445</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8908075016977989</v>
+        <v>0.8902743300604705</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.815399993359939</v>
+        <v>0.8190630832520549</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8201836589507006</v>
+        <v>0.8137514850294671</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9396283223211361</v>
+        <v>0.9388636711533751</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8690518648246589</v>
+        <v>0.8711160305874411</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.8780137620863465</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8049666561280008</v>
+        <v>0.804966656128001</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6845874603661909</v>
+        <v>0.6832190724426329</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8501449313715169</v>
+        <v>0.849704284473774</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7793419132485575</v>
+        <v>0.7820915624323252</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7638337354629452</v>
+        <v>0.764235386155398</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.902652285881657</v>
+        <v>0.9019802989521994</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.826722508027863</v>
+        <v>0.8268816237348895</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3964703456746688</v>
+        <v>0.3947537817140035</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9041945000867111</v>
+        <v>0.9043895197078941</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.6609571840146655</v>
+        <v>0.6594041608139438</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4702083674060767</v>
+        <v>0.4709840055142232</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9434588241664829</v>
+        <v>0.9428147316170216</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7100232575966599</v>
+        <v>0.7056868244957746</v>
       </c>
     </row>
     <row r="28">
@@ -1010,7 +1010,7 @@
         <v>0.9063669999452783</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.7841178267236728</v>
+        <v>0.7841178267236727</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6351154084348603</v>
+        <v>0.634264217676654</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8961948497794108</v>
+        <v>0.8957152698446258</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7726354913281056</v>
+        <v>0.7725483567892708</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6724455680291604</v>
+        <v>0.6732410353417373</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9157172619145945</v>
+        <v>0.9156070272378266</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7938676764520349</v>
+        <v>0.7934134885047113</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>165790</v>
+        <v>165136</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>276029</v>
+        <v>277853</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>450949</v>
+        <v>451401</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>201554</v>
+        <v>200511</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>298290</v>
+        <v>298131</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>494577</v>
+        <v>493180</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>359927</v>
+        <v>359686</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>478910</v>
+        <v>479643</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>854483</v>
+        <v>848187</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>413686</v>
+        <v>412872</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>509605</v>
+        <v>510899</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>917057</v>
+        <v>915841</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>224154</v>
+        <v>224202</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>307340</v>
+        <v>307252</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>542055</v>
+        <v>541022</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>254693</v>
+        <v>253522</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>327200</v>
+        <v>327477</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>575174</v>
+        <v>575850</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>212808</v>
+        <v>215818</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>352346</v>
+        <v>354155</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>581765</v>
+        <v>578394</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>264665</v>
+        <v>265995</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>386707</v>
+        <v>385223</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>644896</v>
+        <v>642071</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>171226</v>
+        <v>171439</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>206313</v>
+        <v>206812</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>385284</v>
+        <v>386216</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>188300</v>
+        <v>188178</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>220922</v>
+        <v>221010</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>405674</v>
+        <v>407139</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>196942</v>
+        <v>197298</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>234950</v>
+        <v>234810</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>435796</v>
+        <v>437754</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>222029</v>
+        <v>220288</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>247827</v>
+        <v>247625</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>464471</v>
+        <v>465574</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>492689</v>
+        <v>491704</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>656360</v>
+        <v>656020</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1162579</v>
+        <v>1166680</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>549721</v>
+        <v>550010</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>696899</v>
+        <v>696380</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1233258</v>
+        <v>1233496</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>316412</v>
+        <v>315042</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>751685</v>
+        <v>751847</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1076966</v>
+        <v>1074435</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>375260</v>
+        <v>375879</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>784327</v>
+        <v>783791</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1156914</v>
+        <v>1149848</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2243017</v>
+        <v>2240011</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3347923</v>
+        <v>3346132</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>5615034</v>
+        <v>5614401</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2374855</v>
+        <v>2377664</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3420853</v>
+        <v>3420441</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>5769336</v>
+        <v>5766036</v>
       </c>
     </row>
     <row r="40">
